--- a/SOURS/all.xlsx
+++ b/SOURS/all.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\ДОКУМЕНТЫ\1 смена СВК\Яицких Т.Е\ОПИСИ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\work-4\SOURS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935F4C23-1742-4B6B-93D0-709F95441A55}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDCC3C93-AB3C-4B79-A547-08441A0673F3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1815" yWindow="1800" windowWidth="16200" windowHeight="11100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2153,15 +2153,9 @@
     <t>ИТС.телефонный оператор</t>
   </si>
   <si>
-    <t>ОС. кладовщик</t>
-  </si>
-  <si>
     <t>IT. програмист</t>
   </si>
   <si>
-    <t>ИТС. рабочий зеленого хозяйства</t>
-  </si>
-  <si>
     <t>МЦ. врач</t>
   </si>
   <si>
@@ -4593,6 +4587,12 @@
   </si>
   <si>
     <t>Яцук Татьяна Витальевна</t>
+  </si>
+  <si>
+    <t>Зав. складом От. Снабжения</t>
+  </si>
+  <si>
+    <t>Прачечная</t>
   </si>
 </sst>
 </file>
@@ -5024,10 +5024,10 @@
   </sheetPr>
   <dimension ref="A1:F183"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5049,7 +5049,7 @@
         <v>607</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>349</v>
@@ -5058,18 +5058,18 @@
         <v>350</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>354</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>610</v>
@@ -5078,7 +5078,7 @@
         <v>355</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -5095,10 +5095,10 @@
         <v>611</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -5118,7 +5118,7 @@
         <v>355</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -5138,12 +5138,12 @@
         <v>361</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>362</v>
@@ -5158,7 +5158,7 @@
         <v>364</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -5178,7 +5178,7 @@
         <v>379</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -5198,12 +5198,12 @@
         <v>382</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>383</v>
@@ -5218,7 +5218,7 @@
         <v>385</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -5238,12 +5238,12 @@
         <v>388</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>389</v>
@@ -5258,7 +5258,7 @@
         <v>391</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -5278,7 +5278,7 @@
         <v>396</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -5298,7 +5298,7 @@
         <v>399</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -5318,7 +5318,7 @@
         <v>405</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -5338,7 +5338,7 @@
         <v>407</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -5358,7 +5358,7 @@
         <v>413</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -5378,7 +5378,7 @@
         <v>416</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -5398,7 +5398,7 @@
         <v>419</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -5418,7 +5418,7 @@
         <v>231</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -5438,7 +5438,7 @@
         <v>399</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -5452,13 +5452,13 @@
         <v>429</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>430</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -5478,7 +5478,7 @@
         <v>231</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -5489,7 +5489,7 @@
         <v>435</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>647</v>
@@ -5498,7 +5498,7 @@
         <v>198</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -5518,7 +5518,7 @@
         <v>440</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -5538,7 +5538,7 @@
         <v>416</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -5552,13 +5552,13 @@
         <v>634</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>444</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -5578,7 +5578,7 @@
         <v>447</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -5598,7 +5598,7 @@
         <v>450</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -5618,12 +5618,12 @@
         <v>453</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>454</v>
@@ -5635,10 +5635,10 @@
         <v>637</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -5658,7 +5658,7 @@
         <v>416</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -5678,7 +5678,7 @@
         <v>460</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -5698,7 +5698,7 @@
         <v>463</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -5718,7 +5718,7 @@
         <v>466</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -5738,7 +5738,7 @@
         <v>466</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -5758,7 +5758,7 @@
         <v>471</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -5778,7 +5778,7 @@
         <v>474</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -5798,7 +5798,7 @@
         <v>477</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -5818,7 +5818,7 @@
         <v>480</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -5838,7 +5838,7 @@
         <v>483</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="41" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -5858,12 +5858,12 @@
         <v>486</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="42" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>487</v>
@@ -5878,7 +5878,7 @@
         <v>691</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="43" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -5898,7 +5898,7 @@
         <v>491</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -5918,7 +5918,7 @@
         <v>494</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="45" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -5938,12 +5938,12 @@
         <v>497</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="46" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="B46" s="8" t="s">
         <v>498</v>
@@ -5958,7 +5958,7 @@
         <v>500</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="47" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -5978,7 +5978,7 @@
         <v>503</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="48" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -5998,7 +5998,7 @@
         <v>506</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="49" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -6018,7 +6018,7 @@
         <v>512</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="50" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -6038,7 +6038,7 @@
         <v>515</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="51" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -6055,10 +6055,10 @@
         <v>582</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>692</v>
+        <v>1504</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="52" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -6075,10 +6075,10 @@
         <v>583</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="53" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -6095,10 +6095,10 @@
         <v>584</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>694</v>
+        <v>1505</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="54" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -6115,10 +6115,10 @@
         <v>585</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="55" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -6138,12 +6138,12 @@
         <v>528</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="56" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="B56" s="8" t="s">
         <v>529</v>
@@ -6155,30 +6155,30 @@
         <v>588</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="57" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="B57" s="8" t="s">
         <v>531</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="D57" s="8" t="s">
         <v>589</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="58" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -6198,7 +6198,7 @@
         <v>536</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="59" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -6206,7 +6206,7 @@
         <v>688</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="C59" s="8" t="s">
         <v>537</v>
@@ -6218,7 +6218,7 @@
         <v>538</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="60" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -6229,7 +6229,7 @@
         <v>524</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="D60" s="8" t="s">
         <v>593</v>
@@ -6238,7 +6238,7 @@
         <v>539</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="61" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -6249,16 +6249,16 @@
         <v>540</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="D61" s="8" t="s">
         <v>594</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="62" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -6275,10 +6275,10 @@
         <v>595</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="63" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -6295,10 +6295,10 @@
         <v>596</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="64" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -6318,7 +6318,7 @@
         <v>549</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="65" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -6338,7 +6338,7 @@
         <v>552</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="66" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -6358,7 +6358,7 @@
         <v>555</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="67" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -6378,7 +6378,7 @@
         <v>558</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="68" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -6398,7 +6398,7 @@
         <v>563</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="69" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -6418,7 +6418,7 @@
         <v>549</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="70" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -6429,7 +6429,7 @@
         <v>565</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="D70" s="8" t="s">
         <v>605</v>
@@ -6438,7 +6438,7 @@
         <v>566</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="71" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -6446,19 +6446,19 @@
         <v>688</v>
       </c>
       <c r="B71" s="8" t="s">
+        <v>872</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>873</v>
+      </c>
+      <c r="D71" s="8" t="s">
         <v>874</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="E71" s="8" t="s">
         <v>875</v>
       </c>
-      <c r="D71" s="8" t="s">
+      <c r="F71" s="8" t="s">
         <v>876</v>
-      </c>
-      <c r="E71" s="8" t="s">
-        <v>877</v>
-      </c>
-      <c r="F71" s="8" t="s">
-        <v>878</v>
       </c>
     </row>
     <row r="72" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -6466,39 +6466,39 @@
         <v>688</v>
       </c>
       <c r="B72" s="8" t="s">
+        <v>924</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>925</v>
+      </c>
+      <c r="D72" s="8" t="s">
         <v>926</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="E72" s="8" t="s">
         <v>927</v>
       </c>
-      <c r="D72" s="8" t="s">
+      <c r="F72" s="8" t="s">
         <v>928</v>
-      </c>
-      <c r="E72" s="8" t="s">
-        <v>929</v>
-      </c>
-      <c r="F72" s="8" t="s">
-        <v>930</v>
       </c>
     </row>
     <row r="73" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="B73" s="8" t="s">
+        <v>929</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>930</v>
+      </c>
+      <c r="D73" s="8" t="s">
         <v>931</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="E73" s="8" t="s">
         <v>932</v>
       </c>
-      <c r="D73" s="8" t="s">
+      <c r="F73" s="8" t="s">
         <v>933</v>
-      </c>
-      <c r="E73" s="8" t="s">
-        <v>934</v>
-      </c>
-      <c r="F73" s="8" t="s">
-        <v>935</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -6518,7 +6518,7 @@
         <v>658</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -6538,7 +6538,7 @@
         <v>658</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -6558,7 +6558,7 @@
         <v>664</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -6578,7 +6578,7 @@
         <v>664</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -6598,7 +6598,7 @@
         <v>674</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -6618,7 +6618,7 @@
         <v>674</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -6638,7 +6638,7 @@
         <v>674</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -6652,13 +6652,13 @@
         <v>681</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E81" s="5" t="s">
         <v>674</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -6669,16 +6669,16 @@
         <v>682</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E82" s="5" t="s">
         <v>674</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -6698,12 +6698,12 @@
         <v>686</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="84" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="B84" s="8" t="s">
         <v>9</v>
@@ -6715,7 +6715,7 @@
         <v>9</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="F84" s="8" t="s">
         <v>9</v>
@@ -6723,7 +6723,7 @@
     </row>
     <row r="85" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B85" s="8" t="s">
         <v>9</v>
@@ -6735,7 +6735,7 @@
         <v>9</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="F85" s="8" t="s">
         <v>9</v>
@@ -6755,10 +6755,10 @@
         <v>602</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="87" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -6775,15 +6775,15 @@
         <v>646</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="88" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="B88" s="8" t="s">
         <v>9</v>
@@ -6795,7 +6795,7 @@
         <v>9</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="F88" s="8" t="s">
         <v>9</v>
@@ -6815,10 +6815,10 @@
         <v>586</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="90" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -6826,19 +6826,19 @@
         <v>373</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="D90" s="8" t="s">
         <v>618</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="91" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -6858,12 +6858,12 @@
         <v>425</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="92" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B92" s="8" t="s">
         <v>9</v>
@@ -6875,7 +6875,7 @@
         <v>9</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="F92" s="8" t="s">
         <v>9</v>
@@ -6883,7 +6883,7 @@
     </row>
     <row r="93" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B93" s="8" t="s">
         <v>392</v>
@@ -6892,13 +6892,13 @@
         <v>393</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="94" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -6915,10 +6915,10 @@
         <v>626</v>
       </c>
       <c r="E94" s="8" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="95" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -6929,7 +6929,7 @@
         <v>508</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="D95" s="8" t="s">
         <v>579</v>
@@ -6938,7 +6938,7 @@
         <v>509</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="96" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -6958,7 +6958,7 @@
         <v>353</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
     </row>
     <row r="97" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -6975,24 +6975,24 @@
         <v>616</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E98" s="5" t="s">
         <v>9</v>
@@ -7003,7 +7003,7 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="B99" s="5" t="s">
         <v>9</v>
@@ -7023,19 +7023,19 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="F100" s="5" t="s">
         <v>9</v>
@@ -7043,7 +7043,7 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="B101" s="5" t="s">
         <v>532</v>
@@ -7055,7 +7055,7 @@
         <v>590</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="F101" s="5" t="s">
         <v>9</v>
@@ -7063,19 +7063,19 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="D102" s="5" t="s">
+        <v>893</v>
+      </c>
+      <c r="E102" s="5" t="s">
         <v>895</v>
-      </c>
-      <c r="E102" s="5" t="s">
-        <v>897</v>
       </c>
       <c r="F102" s="5" t="s">
         <v>9</v>
@@ -7083,7 +7083,7 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="B103" s="5" t="s">
         <v>544</v>
@@ -7098,24 +7098,24 @@
         <v>546</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B104" s="5" t="s">
         <v>484</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="F104" s="5" t="s">
         <v>9</v>
@@ -7123,19 +7123,19 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B105" s="5" t="s">
+        <v>974</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>975</v>
+      </c>
+      <c r="D105" s="5" t="s">
         <v>976</v>
       </c>
-      <c r="C105" s="5" t="s">
+      <c r="E105" s="5" t="s">
         <v>977</v>
-      </c>
-      <c r="D105" s="5" t="s">
-        <v>978</v>
-      </c>
-      <c r="E105" s="5" t="s">
-        <v>979</v>
       </c>
       <c r="F105" s="5" t="s">
         <v>9</v>
@@ -7143,7 +7143,7 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="B106" s="5" t="s">
         <v>9</v>
@@ -7163,19 +7163,19 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="F107" s="5" t="s">
         <v>9</v>
@@ -7183,7 +7183,7 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B108" s="5" t="s">
         <v>365</v>
@@ -7203,7 +7203,7 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B109" s="5" t="s">
         <v>9</v>
@@ -7223,7 +7223,7 @@
     </row>
     <row r="110" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="8" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="B110" s="8" t="s">
         <v>362</v>
@@ -7238,12 +7238,12 @@
         <v>372</v>
       </c>
       <c r="F110" s="8" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="111" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="8" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="B111" s="8" t="s">
         <v>9</v>
@@ -7252,18 +7252,18 @@
         <v>9</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E111" s="8" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="F111" s="8" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="112" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="8" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="B112" s="8" t="s">
         <v>408</v>
@@ -7278,21 +7278,21 @@
         <v>410</v>
       </c>
       <c r="F112" s="8" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="E113" s="5" t="s">
         <v>9</v>
@@ -7303,16 +7303,16 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="E114" s="5" t="s">
         <v>9</v>
@@ -7326,13 +7326,13 @@
         <v>9</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="E115" s="5" t="s">
         <v>9</v>
@@ -7346,13 +7346,13 @@
         <v>9</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="E116" s="5" t="s">
         <v>9</v>
@@ -7363,19 +7363,19 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="B117" s="5" t="s">
         <v>667</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="F117" s="5" t="s">
         <v>9</v>
@@ -7383,16 +7383,16 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="E118" s="5" t="s">
         <v>9</v>
@@ -7403,19 +7403,19 @@
     </row>
     <row r="119" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="8" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="D119" s="8" t="s">
         <v>9</v>
       </c>
       <c r="E119" s="8" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="F119" s="8" t="s">
         <v>9</v>
@@ -7423,19 +7423,19 @@
     </row>
     <row r="120" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="8" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="B120" s="8" t="s">
+        <v>905</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>906</v>
+      </c>
+      <c r="D120" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E120" s="8" t="s">
         <v>907</v>
-      </c>
-      <c r="C120" s="8" t="s">
-        <v>908</v>
-      </c>
-      <c r="D120" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E120" s="8" t="s">
-        <v>909</v>
       </c>
       <c r="F120" s="8" t="s">
         <v>9</v>
@@ -7449,13 +7449,13 @@
         <v>312</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="D121" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F121" s="9" t="s">
         <v>9</v>
@@ -7469,13 +7469,13 @@
         <v>347</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="D122" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E122" s="9" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F122" s="9" t="s">
         <v>9</v>
@@ -7486,16 +7486,16 @@
         <v>9</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="D123" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E123" s="9" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F123" s="9" t="s">
         <v>9</v>
@@ -7509,13 +7509,13 @@
         <v>314</v>
       </c>
       <c r="C124" s="10" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="D124" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E124" s="9" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F124" s="9" t="s">
         <v>9</v>
@@ -7529,13 +7529,13 @@
         <v>347</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="D125" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E125" s="9" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F125" s="9" t="s">
         <v>9</v>
@@ -7549,13 +7549,13 @@
         <v>347</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="D126" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F126" s="9" t="s">
         <v>9</v>
@@ -7569,13 +7569,13 @@
         <v>348</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="D127" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E127" s="9" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F127" s="9" t="s">
         <v>9</v>
@@ -7589,13 +7589,13 @@
         <v>348</v>
       </c>
       <c r="C128" s="10" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="D128" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F128" s="9" t="s">
         <v>9</v>
@@ -7609,13 +7609,13 @@
         <v>348</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="D129" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E129" s="9" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F129" s="9" t="s">
         <v>9</v>
@@ -7629,13 +7629,13 @@
         <v>348</v>
       </c>
       <c r="C130" s="10" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="D130" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E130" s="9" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F130" s="9" t="s">
         <v>9</v>
@@ -7649,13 +7649,13 @@
         <v>348</v>
       </c>
       <c r="C131" s="10" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="D131" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E131" s="9" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F131" s="9" t="s">
         <v>9</v>
@@ -7666,16 +7666,16 @@
         <v>9</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="C132" s="10" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="D132" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E132" s="9" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F132" s="9" t="s">
         <v>9</v>
@@ -7686,16 +7686,16 @@
         <v>9</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="D133" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E133" s="9" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F133" s="9" t="s">
         <v>9</v>
@@ -7706,16 +7706,16 @@
         <v>9</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D134" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E134" s="9" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F134" s="9" t="s">
         <v>9</v>
@@ -7726,16 +7726,16 @@
         <v>9</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="D135" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E135" s="9" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F135" s="9" t="s">
         <v>9</v>
@@ -7746,16 +7746,16 @@
         <v>9</v>
       </c>
       <c r="B136" s="10" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="C136" s="10" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D136" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E136" s="9" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F136" s="9" t="s">
         <v>9</v>
@@ -7766,16 +7766,16 @@
         <v>9</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="C137" s="10" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="D137" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E137" s="9" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F137" s="9" t="s">
         <v>9</v>
@@ -7789,13 +7789,13 @@
         <v>323</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D138" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E138" s="9" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F138" s="9" t="s">
         <v>9</v>
@@ -7806,16 +7806,16 @@
         <v>9</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D139" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E139" s="9" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F139" s="9" t="s">
         <v>9</v>
@@ -7826,16 +7826,16 @@
         <v>9</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="C140" s="10" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="D140" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E140" s="9" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F140" s="9" t="s">
         <v>9</v>
@@ -7846,16 +7846,16 @@
         <v>9</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D141" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E141" s="9" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F141" s="9" t="s">
         <v>9</v>
@@ -7866,16 +7866,16 @@
         <v>9</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="D142" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E142" s="9" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F142" s="9" t="s">
         <v>9</v>
@@ -7889,13 +7889,13 @@
         <v>319</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D143" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E143" s="9" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F143" s="9" t="s">
         <v>9</v>
@@ -7909,13 +7909,13 @@
         <v>320</v>
       </c>
       <c r="C144" s="10" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="D144" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E144" s="9" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F144" s="9" t="s">
         <v>9</v>
@@ -7929,13 +7929,13 @@
         <v>314</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="D145" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E145" s="9" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F145" s="9" t="s">
         <v>9</v>
@@ -7949,13 +7949,13 @@
         <v>316</v>
       </c>
       <c r="C146" s="10" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="D146" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E146" s="9" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F146" s="9" t="s">
         <v>9</v>
@@ -7969,13 +7969,13 @@
         <v>319</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="D147" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E147" s="9" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F147" s="9" t="s">
         <v>9</v>
@@ -7986,16 +7986,16 @@
         <v>9</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="D148" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E148" s="9" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F148" s="9" t="s">
         <v>9</v>
@@ -8006,16 +8006,16 @@
         <v>9</v>
       </c>
       <c r="B149" s="10" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="C149" s="10" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="D149" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E149" s="9" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F149" s="9" t="s">
         <v>9</v>
@@ -8029,13 +8029,13 @@
         <v>316</v>
       </c>
       <c r="C150" s="10" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="D150" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E150" s="9" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F150" s="9" t="s">
         <v>9</v>
@@ -8046,16 +8046,16 @@
         <v>9</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="D151" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E151" s="9" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F151" s="9" t="s">
         <v>9</v>
@@ -8066,16 +8066,16 @@
         <v>9</v>
       </c>
       <c r="B152" s="10" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="C152" s="10" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="D152" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E152" s="9" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F152" s="9" t="s">
         <v>9</v>
@@ -8089,13 +8089,13 @@
         <v>310</v>
       </c>
       <c r="C153" s="10" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="D153" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E153" s="9" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F153" s="9" t="s">
         <v>9</v>
@@ -8106,16 +8106,16 @@
         <v>9</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="C154" s="10" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="D154" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E154" s="9" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F154" s="9" t="s">
         <v>9</v>
@@ -8129,13 +8129,13 @@
         <v>312</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="D155" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E155" s="9" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F155" s="9" t="s">
         <v>9</v>
@@ -8155,7 +8155,7 @@
         <v>9</v>
       </c>
       <c r="E156" s="9" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F156" s="9" t="s">
         <v>9</v>
@@ -8175,7 +8175,7 @@
         <v>9</v>
       </c>
       <c r="E157" s="9" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F157" s="9" t="s">
         <v>9</v>
@@ -8195,7 +8195,7 @@
         <v>9</v>
       </c>
       <c r="E158" s="9" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F158" s="9" t="s">
         <v>9</v>
@@ -8206,16 +8206,16 @@
         <v>9</v>
       </c>
       <c r="B159" s="10" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="C159" s="10" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="D159" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E159" s="9" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F159" s="9" t="s">
         <v>9</v>
@@ -8235,7 +8235,7 @@
         <v>9</v>
       </c>
       <c r="E160" s="9" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F160" s="9" t="s">
         <v>9</v>
@@ -8255,7 +8255,7 @@
         <v>9</v>
       </c>
       <c r="E161" s="9" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F161" s="9" t="s">
         <v>9</v>
@@ -8275,7 +8275,7 @@
         <v>9</v>
       </c>
       <c r="E162" s="9" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F162" s="9" t="s">
         <v>9</v>
@@ -8295,7 +8295,7 @@
         <v>9</v>
       </c>
       <c r="E163" s="9" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F163" s="9" t="s">
         <v>9</v>
@@ -8315,7 +8315,7 @@
         <v>9</v>
       </c>
       <c r="E164" s="9" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F164" s="9" t="s">
         <v>9</v>
@@ -8335,7 +8335,7 @@
         <v>9</v>
       </c>
       <c r="E165" s="9" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F165" s="9" t="s">
         <v>9</v>
@@ -8355,7 +8355,7 @@
         <v>9</v>
       </c>
       <c r="E166" s="9" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F166" s="9" t="s">
         <v>9</v>
@@ -8375,7 +8375,7 @@
         <v>9</v>
       </c>
       <c r="E167" s="9" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F167" s="9" t="s">
         <v>9</v>
@@ -8395,7 +8395,7 @@
         <v>9</v>
       </c>
       <c r="E168" s="9" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F168" s="9" t="s">
         <v>9</v>
@@ -8415,7 +8415,7 @@
         <v>9</v>
       </c>
       <c r="E169" s="9" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F169" s="9" t="s">
         <v>9</v>
@@ -8435,7 +8435,7 @@
         <v>9</v>
       </c>
       <c r="E170" s="9" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F170" s="9" t="s">
         <v>9</v>
@@ -8455,7 +8455,7 @@
         <v>9</v>
       </c>
       <c r="E171" s="9" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F171" s="9" t="s">
         <v>9</v>
@@ -8475,7 +8475,7 @@
         <v>9</v>
       </c>
       <c r="E172" s="9" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F172" s="9" t="s">
         <v>9</v>
@@ -8495,7 +8495,7 @@
         <v>9</v>
       </c>
       <c r="E173" s="9" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F173" s="9" t="s">
         <v>9</v>
@@ -8515,7 +8515,7 @@
         <v>9</v>
       </c>
       <c r="E174" s="9" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F174" s="9" t="s">
         <v>9</v>
@@ -8535,7 +8535,7 @@
         <v>9</v>
       </c>
       <c r="E175" s="9" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F175" s="9" t="s">
         <v>9</v>
@@ -8555,7 +8555,7 @@
         <v>9</v>
       </c>
       <c r="E176" s="9" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F176" s="9" t="s">
         <v>9</v>
@@ -8575,7 +8575,7 @@
         <v>9</v>
       </c>
       <c r="E177" s="9" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F177" s="9" t="s">
         <v>9</v>
@@ -8583,7 +8583,7 @@
     </row>
     <row r="178" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="6" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="B178" s="6" t="s">
         <v>374</v>
@@ -8598,32 +8598,32 @@
         <v>376</v>
       </c>
       <c r="F178" s="6" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="179" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="6" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="B179" s="6" t="s">
+        <v>885</v>
+      </c>
+      <c r="C179" s="6" t="s">
+        <v>886</v>
+      </c>
+      <c r="D179" s="6" t="s">
         <v>887</v>
       </c>
-      <c r="C179" s="6" t="s">
-        <v>888</v>
-      </c>
-      <c r="D179" s="6" t="s">
-        <v>889</v>
-      </c>
       <c r="E179" s="6" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="F179" s="6" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
     </row>
     <row r="180" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="6" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="B180" s="6" t="s">
         <v>374</v>
@@ -8638,12 +8638,12 @@
         <v>437</v>
       </c>
       <c r="F180" s="6" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="181" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="6" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="B181" s="6" t="s">
         <v>667</v>
@@ -8658,24 +8658,24 @@
         <v>670</v>
       </c>
       <c r="F181" s="6" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="182" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="6" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="B182" s="7" t="s">
         <v>347</v>
       </c>
       <c r="C182" s="7" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="D182" s="6" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="E182" s="6" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F182" s="6" t="s">
         <v>9</v>
@@ -8683,7 +8683,7 @@
     </row>
     <row r="183" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="6" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="B183" s="7" t="s">
         <v>312</v>
@@ -8692,10 +8692,10 @@
         <v>328</v>
       </c>
       <c r="D183" s="6" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="E183" s="6" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F183" s="6" t="s">
         <v>9</v>
@@ -15255,13 +15255,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>936</v>
+      </c>
+      <c r="B1" t="s">
+        <v>937</v>
+      </c>
+      <c r="C1" t="s">
         <v>938</v>
-      </c>
-      <c r="B1" t="s">
-        <v>939</v>
-      </c>
-      <c r="C1" t="s">
-        <v>940</v>
       </c>
       <c r="D1">
         <v>89189087756</v>
@@ -15269,13 +15269,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="B2" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="C2" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="D2">
         <v>89884163858</v>
@@ -15283,13 +15283,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>941</v>
+      </c>
+      <c r="B3" t="s">
+        <v>942</v>
+      </c>
+      <c r="C3" t="s">
         <v>943</v>
-      </c>
-      <c r="B3" t="s">
-        <v>944</v>
-      </c>
-      <c r="C3" t="s">
-        <v>945</v>
       </c>
       <c r="D3">
         <v>89676444300</v>
@@ -15297,10 +15297,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="B4" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -15311,13 +15311,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>946</v>
+      </c>
+      <c r="B5" t="s">
+        <v>947</v>
+      </c>
+      <c r="C5" t="s">
         <v>948</v>
-      </c>
-      <c r="B5" t="s">
-        <v>949</v>
-      </c>
-      <c r="C5" t="s">
-        <v>950</v>
       </c>
       <c r="D5">
         <v>89284524041</v>
@@ -15325,13 +15325,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>949</v>
+      </c>
+      <c r="B6" t="s">
+        <v>950</v>
+      </c>
+      <c r="C6" t="s">
         <v>951</v>
-      </c>
-      <c r="B6" t="s">
-        <v>952</v>
-      </c>
-      <c r="C6" t="s">
-        <v>953</v>
       </c>
       <c r="D6">
         <v>89184651417</v>
@@ -15339,13 +15339,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>952</v>
+      </c>
+      <c r="B7" t="s">
+        <v>953</v>
+      </c>
+      <c r="C7" t="s">
         <v>954</v>
-      </c>
-      <c r="B7" t="s">
-        <v>955</v>
-      </c>
-      <c r="C7" t="s">
-        <v>956</v>
       </c>
       <c r="D7">
         <v>89095210801</v>
@@ -15356,10 +15356,10 @@
         <v>658</v>
       </c>
       <c r="B8" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="C8" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D8">
         <v>89183599698</v>
@@ -15367,13 +15367,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="B9" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="C9" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="D9">
         <v>89282340656</v>
@@ -15381,13 +15381,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="B10" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="C10" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="D10">
         <v>89184462444</v>
@@ -15395,13 +15395,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="B11" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="C11" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="D11">
         <v>89057105410</v>
@@ -15409,13 +15409,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="B12" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="C12" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="D12">
         <v>89628868947</v>
@@ -15423,13 +15423,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="B13" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="C13" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="D13">
         <v>89384720705</v>
@@ -15437,13 +15437,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="B14" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="C14" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="D14">
         <v>89883223308</v>
@@ -15466,87 +15466,87 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
@@ -15561,57 +15561,57 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
@@ -15626,97 +15626,97 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
@@ -15726,62 +15726,62 @@
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
@@ -15791,22 +15791,22 @@
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
@@ -15816,17 +15816,17 @@
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
@@ -15836,97 +15836,97 @@
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
@@ -15936,32 +15936,32 @@
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
@@ -15976,52 +15976,52 @@
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
@@ -16031,27 +16031,27 @@
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
@@ -16061,77 +16061,77 @@
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
@@ -16141,52 +16141,52 @@
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
@@ -16196,17 +16196,17 @@
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
@@ -16216,7 +16216,7 @@
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
@@ -16226,7 +16226,7 @@
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
@@ -16236,7 +16236,7 @@
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
@@ -16246,142 +16246,142 @@
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
@@ -16391,7 +16391,7 @@
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
@@ -16401,22 +16401,22 @@
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
@@ -16426,47 +16426,47 @@
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
@@ -16476,37 +16476,37 @@
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
@@ -16516,32 +16516,32 @@
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
@@ -16551,17 +16551,17 @@
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
@@ -16571,72 +16571,72 @@
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
@@ -16646,22 +16646,22 @@
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
@@ -16676,32 +16676,32 @@
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
@@ -16711,62 +16711,62 @@
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
@@ -16776,52 +16776,52 @@
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
@@ -16831,17 +16831,17 @@
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
@@ -16851,7 +16851,7 @@
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
@@ -16861,17 +16861,17 @@
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
@@ -16881,22 +16881,22 @@
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
@@ -16906,12 +16906,12 @@
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
@@ -16921,27 +16921,27 @@
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
@@ -16951,32 +16951,32 @@
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
@@ -16986,82 +16986,82 @@
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
@@ -17071,7 +17071,7 @@
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
@@ -17081,52 +17081,52 @@
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
@@ -17136,12 +17136,12 @@
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
@@ -17151,22 +17151,22 @@
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
@@ -17176,52 +17176,52 @@
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
@@ -17231,57 +17231,57 @@
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
@@ -17291,52 +17291,52 @@
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
@@ -17346,27 +17346,27 @@
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
@@ -17386,37 +17386,37 @@
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
@@ -17426,37 +17426,37 @@
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
@@ -17466,12 +17466,12 @@
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
@@ -17481,17 +17481,17 @@
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
@@ -17501,52 +17501,52 @@
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.25">
@@ -17556,32 +17556,32 @@
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
@@ -17591,17 +17591,17 @@
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
@@ -17621,37 +17621,37 @@
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
@@ -17661,22 +17661,22 @@
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
@@ -17686,17 +17686,17 @@
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
@@ -17706,22 +17706,22 @@
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
@@ -17731,62 +17731,62 @@
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.25">
@@ -17796,52 +17796,52 @@
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.25">
@@ -17851,52 +17851,52 @@
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.25">
@@ -17906,52 +17906,52 @@
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.25">
@@ -17961,92 +17961,92 @@
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.25">
@@ -18056,37 +18056,37 @@
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.25">
@@ -18096,97 +18096,97 @@
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.25">
@@ -18196,62 +18196,62 @@
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="549" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="553" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="554" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="555" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.25">
@@ -18261,12 +18261,12 @@
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="562" spans="1:1" x14ac:dyDescent="0.25">
@@ -18281,117 +18281,117 @@
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="565" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="566" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="567" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="568" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="569" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="570" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="571" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="572" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="573" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="574" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="575" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="576" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="577" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="578" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="579" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="580" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="581" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="582" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="583" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="584" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="585" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="586" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
     </row>
   </sheetData>

--- a/SOURS/all.xlsx
+++ b/SOURS/all.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\work-4\SOURS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\work\SOURS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDCC3C93-AB3C-4B79-A547-08441A0673F3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9776A350-C8C3-4FAF-BAF9-3888691AC470}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1815" yWindow="1800" windowWidth="16200" windowHeight="11100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="16200" windowHeight="11100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Авто" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3077" uniqueCount="1506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3077" uniqueCount="1510">
   <si>
     <t>Примечание</t>
   </si>
@@ -4593,6 +4593,18 @@
   </si>
   <si>
     <t>Прачечная</t>
+  </si>
+  <si>
+    <t>NISSAN X-TRAIL</t>
+  </si>
+  <si>
+    <t>С 129 МХ 199</t>
+  </si>
+  <si>
+    <t>Касьянов Владимир Николаевич</t>
+  </si>
+  <si>
+    <t>Зам по финансам</t>
   </si>
 </sst>
 </file>
@@ -5024,10 +5036,10 @@
   </sheetPr>
   <dimension ref="A1:F183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="E53" sqref="E53"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7146,16 +7158,16 @@
         <v>867</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>9</v>
+        <v>1506</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>9</v>
+        <v>1507</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>9</v>
+        <v>1508</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>9</v>
+        <v>1509</v>
       </c>
       <c r="F106" s="5" t="s">
         <v>9</v>

--- a/SOURS/all.xlsx
+++ b/SOURS/all.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\work\SOURS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\work-9\SOURS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9776A350-C8C3-4FAF-BAF9-3888691AC470}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{339F9DF2-8338-49B8-AD0A-043D261FC436}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="16200" windowHeight="11100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-7950" yWindow="1005" windowWidth="16200" windowHeight="11100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Авто" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3077" uniqueCount="1510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3077" uniqueCount="1515">
   <si>
     <t>Примечание</t>
   </si>
@@ -4604,7 +4604,22 @@
     <t>Касьянов Владимир Николаевич</t>
   </si>
   <si>
-    <t>Зам по финансам</t>
+    <t>Toyota BB</t>
+  </si>
+  <si>
+    <t>С 689 ОС 55</t>
+  </si>
+  <si>
+    <t>Спирина Тамара Алексеевна</t>
+  </si>
+  <si>
+    <t>8-983-111-49-68</t>
+  </si>
+  <si>
+    <t>Заместитель финансового директора</t>
+  </si>
+  <si>
+    <t>8-985-768-75-58</t>
   </si>
 </sst>
 </file>
@@ -6738,19 +6753,19 @@
         <v>790</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>9</v>
+        <v>1509</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>9</v>
+        <v>1510</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>9</v>
+        <v>1511</v>
       </c>
       <c r="E85" s="8" t="s">
         <v>992</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>9</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="86" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -7167,10 +7182,10 @@
         <v>1508</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>1509</v>
+        <v>1513</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>9</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
